--- a/資料/DB定義書.xlsx
+++ b/資料/DB定義書.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qweas\OneDrive\デスクトップ\project\社用オブジェクトReact\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88878D4D-FB9E-4E27-B18B-A9A23B32C1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F808FFEB-F62C-41EA-BA8F-8992CF59B2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" tabRatio="808" xr2:uid="{B8723A5D-4871-4116-AB82-BDEC5FFC0EE3}"/>
   </bookViews>
@@ -999,7 +999,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1077,8 +1077,16 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1088,6 +1096,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF87E7AD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1901,7 +1915,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2058,46 +2072,76 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="58" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="59" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -2136,25 +2180,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -2169,85 +2240,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="58" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="59" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2565,13 +2570,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64D4DD1-106D-4FCA-9088-9218127D6F75}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I20" sqref="I20:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2652,7 +2657,7 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="61" t="s">
         <v>196</v>
       </c>
       <c r="C7" s="49" t="s">
@@ -2664,7 +2669,7 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C8" s="49" t="s">
@@ -2676,7 +2681,7 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="112" t="s">
         <v>235</v>
       </c>
       <c r="C9" s="49" t="s">
@@ -2732,12 +2737,12 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A65415-B4D9-4B75-A554-E0BA6CD8484A}">
-  <sheetPr>
+  <sheetPr codeName="Sheet10">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -2760,108 +2765,108 @@
       <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="83"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:7" ht="18">
       <c r="B3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="84"/>
+      <c r="G3" s="75"/>
     </row>
     <row r="4" spans="1:7" ht="18">
       <c r="B4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="81"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="80"/>
-      <c r="G4" s="84"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="75"/>
     </row>
     <row r="5" spans="1:7" ht="18">
       <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="82" t="str">
+      <c r="C5" s="73" t="str">
         <f>テーブル一覧!B11</f>
         <v>技術情報</v>
       </c>
-      <c r="D5" s="81"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="80" t="s">
+      <c r="F5" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="84"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" spans="1:7" ht="18">
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="D6" s="81"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="84"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="75"/>
     </row>
     <row r="7" spans="1:7" ht="18">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="68"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
+      <c r="B8" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="81"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="72"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="81"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1">
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="75"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="85"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1">
       <c r="A12" s="2" t="s">
@@ -2993,10 +2998,10 @@
       <c r="B20" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="77"/>
+      <c r="D20" s="87"/>
       <c r="E20" s="23" t="s">
         <v>37</v>
       </c>
@@ -3037,12 +3042,12 @@
       <c r="C24" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="62" t="s">
+      <c r="D24" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="65"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="90"/>
     </row>
     <row r="25" spans="1:7" ht="18">
       <c r="A25" s="3">
@@ -3054,12 +3059,12 @@
       <c r="C25" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="D25" s="66" t="s">
         <v>192</v>
       </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="68"/>
     </row>
     <row r="26" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A26" s="6">
@@ -3071,12 +3076,12 @@
       <c r="C26" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="55"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="93"/>
     </row>
     <row r="28" spans="1:7" ht="15.6" thickBot="1">
       <c r="A28" s="2" t="s">
@@ -3094,10 +3099,10 @@
         <v>47</v>
       </c>
       <c r="D29" s="44"/>
-      <c r="E29" s="60" t="s">
+      <c r="E29" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="61"/>
+      <c r="F29" s="95"/>
       <c r="G29" s="45" t="s">
         <v>67</v>
       </c>
@@ -3118,10 +3123,10 @@
         <v>47</v>
       </c>
       <c r="D32" s="38"/>
-      <c r="E32" s="85" t="s">
+      <c r="E32" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="86"/>
+      <c r="F32" s="105"/>
       <c r="G32" s="30" t="s">
         <v>70</v>
       </c>
@@ -3133,14 +3138,14 @@
       <c r="B33" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="C33" s="87" t="s">
+      <c r="C33" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="88"/>
-      <c r="E33" s="87" t="s">
+      <c r="D33" s="107"/>
+      <c r="E33" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="88"/>
+      <c r="F33" s="107"/>
       <c r="G33" s="24" t="s">
         <v>122</v>
       </c>
@@ -3161,10 +3166,10 @@
         <v>73</v>
       </c>
       <c r="D36" s="44"/>
-      <c r="E36" s="60" t="s">
+      <c r="E36" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="61"/>
+      <c r="F36" s="95"/>
       <c r="G36" s="45" t="s">
         <v>75</v>
       </c>
@@ -3193,134 +3198,138 @@
       <c r="A40" s="46">
         <v>1</v>
       </c>
-      <c r="B40" s="62" t="s">
+      <c r="B40" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="63"/>
-      <c r="D40" s="62" t="s">
+      <c r="C40" s="96"/>
+      <c r="D40" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="65"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="90"/>
     </row>
     <row r="41" spans="1:7" ht="18">
       <c r="A41" s="47">
         <v>2</v>
       </c>
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="56" t="s">
+      <c r="C41" s="99"/>
+      <c r="D41" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="59"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="68"/>
     </row>
     <row r="42" spans="1:7" ht="18">
       <c r="A42" s="47">
         <v>3</v>
       </c>
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="57"/>
-      <c r="D42" s="56" t="s">
+      <c r="C42" s="99"/>
+      <c r="D42" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="59"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="68"/>
     </row>
     <row r="43" spans="1:7" ht="18">
       <c r="A43" s="47">
         <v>4</v>
       </c>
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="59"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="68"/>
     </row>
     <row r="44" spans="1:7" ht="18">
       <c r="A44" s="47">
         <v>5</v>
       </c>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="56" t="s">
+      <c r="C44" s="99"/>
+      <c r="D44" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="59"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="68"/>
     </row>
     <row r="45" spans="1:7" ht="18">
       <c r="A45" s="47">
         <v>6</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="57"/>
-      <c r="D45" s="56" t="s">
+      <c r="C45" s="99"/>
+      <c r="D45" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="59"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="68"/>
     </row>
     <row r="46" spans="1:7" ht="18">
       <c r="A46" s="47">
         <v>7</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="56" t="s">
+      <c r="C46" s="99"/>
+      <c r="D46" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="59"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="68"/>
     </row>
     <row r="47" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A47" s="48">
         <v>8</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="52" t="s">
+      <c r="C47" s="100"/>
+      <c r="D47" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="55"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="92"/>
+      <c r="G47" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="B7:G7"/>
@@ -3334,20 +3343,16 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E36:F36"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3361,13 +3366,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC318F6-8C05-4709-A1AB-80BE44DB8EB1}">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J9:J10"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3389,108 +3394,108 @@
       <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="83"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:7" ht="18">
       <c r="B3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="84"/>
+      <c r="G3" s="75"/>
     </row>
     <row r="4" spans="1:7" ht="18">
       <c r="B4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="81"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="80"/>
-      <c r="G4" s="84"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="75"/>
     </row>
     <row r="5" spans="1:7" ht="18">
       <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="82" t="str">
+      <c r="C5" s="73" t="str">
         <f>テーブル一覧!B3</f>
         <v>勤務照会</v>
       </c>
-      <c r="D5" s="81"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="80" t="s">
+      <c r="F5" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="84"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" spans="1:7" ht="18">
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="71" t="s">
         <v>246</v>
       </c>
-      <c r="D6" s="81"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="84"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="75"/>
     </row>
     <row r="7" spans="1:7" ht="18">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="68"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
+      <c r="B8" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="81"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="72"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="81"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1">
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="75"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="85"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1">
       <c r="A12" s="2" t="s">
@@ -3636,25 +3641,25 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="109">
+      <c r="A19" s="62">
         <v>6</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="110" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="111" t="s">
+      <c r="E19" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="112" t="s">
+      <c r="G19" s="65" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3714,10 +3719,10 @@
       <c r="B24" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="76" t="s">
+      <c r="C24" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="77"/>
+      <c r="D24" s="87"/>
       <c r="E24" s="23" t="s">
         <v>37</v>
       </c>
@@ -3758,12 +3763,12 @@
       <c r="C28" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="62" t="s">
+      <c r="D28" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="65"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="90"/>
     </row>
     <row r="29" spans="1:7" ht="18">
       <c r="A29" s="3">
@@ -3775,12 +3780,12 @@
       <c r="C29" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="56" t="s">
+      <c r="D29" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="59"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="68"/>
     </row>
     <row r="30" spans="1:7" ht="18">
       <c r="A30" s="3">
@@ -3792,12 +3797,12 @@
       <c r="C30" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="56" t="s">
+      <c r="D30" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="59"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="68"/>
     </row>
     <row r="31" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A31" s="6">
@@ -3809,12 +3814,12 @@
       <c r="C31" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="52" t="s">
+      <c r="D31" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="55"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="93"/>
     </row>
     <row r="33" spans="1:7" ht="15.6" thickBot="1">
       <c r="A33" s="2" t="s">
@@ -3832,30 +3837,30 @@
         <v>47</v>
       </c>
       <c r="D34" s="44"/>
-      <c r="E34" s="60" t="s">
+      <c r="E34" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="F34" s="61"/>
+      <c r="F34" s="95"/>
       <c r="G34" s="45" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A35" s="102">
-        <v>1</v>
-      </c>
-      <c r="B35" s="103" t="s">
+      <c r="A35" s="58">
+        <v>1</v>
+      </c>
+      <c r="B35" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="C35" s="104" t="s">
+      <c r="C35" s="97" t="s">
         <v>231</v>
       </c>
-      <c r="D35" s="105"/>
-      <c r="E35" s="104" t="s">
+      <c r="D35" s="98"/>
+      <c r="E35" s="97" t="s">
         <v>230</v>
       </c>
-      <c r="F35" s="105"/>
-      <c r="G35" s="106" t="s">
+      <c r="F35" s="98"/>
+      <c r="G35" s="60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3875,10 +3880,10 @@
         <v>47</v>
       </c>
       <c r="D38" s="44"/>
-      <c r="E38" s="60" t="s">
+      <c r="E38" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="F38" s="61"/>
+      <c r="F38" s="95"/>
       <c r="G38" s="45" t="s">
         <v>70</v>
       </c>
@@ -3899,10 +3904,10 @@
         <v>73</v>
       </c>
       <c r="D41" s="44"/>
-      <c r="E41" s="60" t="s">
+      <c r="E41" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="F41" s="61"/>
+      <c r="F41" s="95"/>
       <c r="G41" s="45" t="s">
         <v>75</v>
       </c>
@@ -3931,124 +3936,146 @@
       <c r="A45" s="46">
         <v>1</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="63"/>
-      <c r="D45" s="62" t="s">
+      <c r="C45" s="96"/>
+      <c r="D45" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="65"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="90"/>
     </row>
     <row r="46" spans="1:7" ht="18">
       <c r="A46" s="47">
         <v>2</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="56" t="s">
+      <c r="C46" s="99"/>
+      <c r="D46" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="59"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="68"/>
     </row>
     <row r="47" spans="1:7" ht="18">
       <c r="A47" s="47">
         <v>3</v>
       </c>
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="56" t="s">
+      <c r="C47" s="99"/>
+      <c r="D47" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="59"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="68"/>
     </row>
     <row r="48" spans="1:7" ht="18">
       <c r="A48" s="47">
         <v>4</v>
       </c>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="57"/>
-      <c r="D48" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="59"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="68"/>
     </row>
     <row r="49" spans="1:7" ht="18">
       <c r="A49" s="47">
         <v>5</v>
       </c>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="57"/>
-      <c r="D49" s="56" t="s">
+      <c r="C49" s="99"/>
+      <c r="D49" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="59"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="68"/>
     </row>
     <row r="50" spans="1:7" ht="18">
       <c r="A50" s="47">
         <v>6</v>
       </c>
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="57"/>
-      <c r="D50" s="56" t="s">
+      <c r="C50" s="99"/>
+      <c r="D50" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="59"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="68"/>
     </row>
     <row r="51" spans="1:7" ht="18">
       <c r="A51" s="47">
         <v>7</v>
       </c>
-      <c r="B51" s="56" t="s">
+      <c r="B51" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="57"/>
-      <c r="D51" s="56" t="s">
+      <c r="C51" s="99"/>
+      <c r="D51" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="59"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="68"/>
     </row>
     <row r="52" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A52" s="48">
         <v>8</v>
       </c>
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="52" t="s">
+      <c r="C52" s="100"/>
+      <c r="D52" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="55"/>
+      <c r="E52" s="92"/>
+      <c r="F52" s="92"/>
+      <c r="G52" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -4065,28 +4092,6 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4100,13 +4105,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6C860D-D6B8-4B5A-9143-B87806C454F9}">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4129,108 +4134,108 @@
       <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="83"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:7" ht="18">
       <c r="B3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="84"/>
+      <c r="G3" s="75"/>
     </row>
     <row r="4" spans="1:7" ht="18">
       <c r="B4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="81"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="80"/>
-      <c r="G4" s="84"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="75"/>
     </row>
     <row r="5" spans="1:7" ht="18">
       <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="82" t="str">
+      <c r="C5" s="73" t="str">
         <f>テーブル一覧!B4</f>
         <v>カスタマー</v>
       </c>
-      <c r="D5" s="81"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="80" t="s">
+      <c r="F5" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="84"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" spans="1:7" ht="18">
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="71" t="s">
         <v>250</v>
       </c>
-      <c r="D6" s="81"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="84"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="75"/>
     </row>
     <row r="7" spans="1:7" ht="18">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="68"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
+      <c r="B8" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="81"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="72"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="81"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1">
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="75"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="85"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1">
       <c r="A12" s="2" t="s">
@@ -4431,10 +4436,10 @@
       <c r="B23" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="77"/>
+      <c r="D23" s="87"/>
       <c r="E23" s="23" t="s">
         <v>37</v>
       </c>
@@ -4475,12 +4480,12 @@
       <c r="C27" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="62" t="s">
+      <c r="D27" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="65"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="90"/>
     </row>
     <row r="28" spans="1:7" ht="18">
       <c r="A28" s="3">
@@ -4492,12 +4497,12 @@
       <c r="C28" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="56" t="s">
+      <c r="D28" s="66" t="s">
         <v>263</v>
       </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="59"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="68"/>
     </row>
     <row r="29" spans="1:7" ht="18">
       <c r="A29" s="9">
@@ -4509,12 +4514,12 @@
       <c r="C29" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="113" t="s">
+      <c r="D29" s="101" t="s">
         <v>264</v>
       </c>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="115"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="103"/>
     </row>
     <row r="30" spans="1:7" ht="18">
       <c r="A30" s="3">
@@ -4526,12 +4531,12 @@
       <c r="C30" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="56" t="s">
+      <c r="D30" s="66" t="s">
         <v>266</v>
       </c>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="59"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="68"/>
     </row>
     <row r="31" spans="1:7" ht="18">
       <c r="A31" s="3">
@@ -4543,12 +4548,12 @@
       <c r="C31" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="56" t="s">
+      <c r="D31" s="66" t="s">
         <v>268</v>
       </c>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="59"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="68"/>
     </row>
     <row r="32" spans="1:7" ht="18">
       <c r="A32" s="3">
@@ -4560,12 +4565,12 @@
       <c r="C32" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="56" t="s">
+      <c r="D32" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="59"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="68"/>
     </row>
     <row r="33" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A33" s="6">
@@ -4577,12 +4582,12 @@
       <c r="C33" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="55"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="93"/>
     </row>
     <row r="35" spans="1:7" ht="15.6" thickBot="1">
       <c r="A35" s="2" t="s">
@@ -4600,41 +4605,36 @@
         <v>47</v>
       </c>
       <c r="D36" s="44"/>
-      <c r="E36" s="60" t="s">
+      <c r="E36" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="F36" s="61"/>
+      <c r="F36" s="95"/>
       <c r="G36" s="45" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A37" s="102">
-        <v>1</v>
-      </c>
-      <c r="B37" s="103" t="s">
+      <c r="A37" s="58">
+        <v>1</v>
+      </c>
+      <c r="B37" s="59" t="s">
         <v>252</v>
       </c>
-      <c r="C37" s="104" t="s">
+      <c r="C37" s="97" t="s">
         <v>231</v>
       </c>
-      <c r="D37" s="105"/>
-      <c r="E37" s="104" t="s">
+      <c r="D37" s="98"/>
+      <c r="E37" s="97" t="s">
         <v>230</v>
       </c>
-      <c r="F37" s="105"/>
-      <c r="G37" s="106" t="s">
+      <c r="F37" s="98"/>
+      <c r="G37" s="60" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="18">
-      <c r="A38" s="91"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="92"/>
+      <c r="D38"/>
+      <c r="F38"/>
     </row>
     <row r="39" spans="1:7" ht="15.6" thickBot="1">
       <c r="A39" s="2" t="s">
@@ -4652,10 +4652,10 @@
         <v>47</v>
       </c>
       <c r="D40" s="38"/>
-      <c r="E40" s="85" t="s">
+      <c r="E40" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="F40" s="86"/>
+      <c r="F40" s="105"/>
       <c r="G40" s="30" t="s">
         <v>70</v>
       </c>
@@ -4667,14 +4667,14 @@
       <c r="B41" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="C41" s="87" t="s">
+      <c r="C41" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="88"/>
-      <c r="E41" s="87" t="s">
+      <c r="D41" s="107"/>
+      <c r="E41" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="88"/>
+      <c r="F41" s="107"/>
       <c r="G41" s="24" t="s">
         <v>257</v>
       </c>
@@ -4695,10 +4695,10 @@
         <v>73</v>
       </c>
       <c r="D44" s="44"/>
-      <c r="E44" s="60" t="s">
+      <c r="E44" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="F44" s="61"/>
+      <c r="F44" s="95"/>
       <c r="G44" s="45" t="s">
         <v>75</v>
       </c>
@@ -4727,134 +4727,141 @@
       <c r="A48" s="46">
         <v>1</v>
       </c>
-      <c r="B48" s="62" t="s">
+      <c r="B48" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="63"/>
-      <c r="D48" s="62" t="s">
+      <c r="C48" s="96"/>
+      <c r="D48" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="65"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="90"/>
     </row>
     <row r="49" spans="1:7" ht="18">
       <c r="A49" s="47">
         <v>2</v>
       </c>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="57"/>
-      <c r="D49" s="56" t="s">
+      <c r="C49" s="99"/>
+      <c r="D49" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="59"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="68"/>
     </row>
     <row r="50" spans="1:7" ht="18">
       <c r="A50" s="47">
         <v>3</v>
       </c>
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="C50" s="57"/>
-      <c r="D50" s="56" t="s">
+      <c r="C50" s="99"/>
+      <c r="D50" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="59"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="68"/>
     </row>
     <row r="51" spans="1:7" ht="18">
       <c r="A51" s="47">
         <v>4</v>
       </c>
-      <c r="B51" s="56" t="s">
+      <c r="B51" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="57"/>
-      <c r="D51" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="59"/>
+      <c r="C51" s="99"/>
+      <c r="D51" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="68"/>
     </row>
     <row r="52" spans="1:7" ht="18">
       <c r="A52" s="47">
         <v>5</v>
       </c>
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="56" t="s">
+      <c r="C52" s="99"/>
+      <c r="D52" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="59"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="68"/>
     </row>
     <row r="53" spans="1:7" ht="18">
       <c r="A53" s="47">
         <v>6</v>
       </c>
-      <c r="B53" s="56" t="s">
+      <c r="B53" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="57"/>
-      <c r="D53" s="56" t="s">
+      <c r="C53" s="99"/>
+      <c r="D53" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="59"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="68"/>
     </row>
     <row r="54" spans="1:7" ht="18">
       <c r="A54" s="47">
         <v>7</v>
       </c>
-      <c r="B54" s="56" t="s">
+      <c r="B54" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="57"/>
-      <c r="D54" s="56" t="s">
+      <c r="C54" s="99"/>
+      <c r="D54" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="59"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="68"/>
     </row>
     <row r="55" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A55" s="48">
         <v>8</v>
       </c>
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="52" t="s">
+      <c r="C55" s="100"/>
+      <c r="D55" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="55"/>
+      <c r="E55" s="92"/>
+      <c r="F55" s="92"/>
+      <c r="G55" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:G48"/>
     <mergeCell ref="B7:G7"/>
@@ -4871,23 +4878,16 @@
     <mergeCell ref="D32:G32"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4901,7 +4901,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB23A68D-D13A-4041-AB61-18E901732B03}">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G49"/>
@@ -4929,108 +4929,108 @@
       <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="83"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:7" ht="18">
       <c r="B3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="84"/>
+      <c r="G3" s="75"/>
     </row>
     <row r="4" spans="1:7" ht="18">
       <c r="B4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="81"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="80"/>
-      <c r="G4" s="84"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="75"/>
     </row>
     <row r="5" spans="1:7" ht="18">
       <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="82" t="str">
+      <c r="C5" s="73" t="str">
         <f>テーブル一覧!B5</f>
         <v>従業員プロジェクト</v>
       </c>
-      <c r="D5" s="81"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="80" t="s">
+      <c r="F5" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="84"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" spans="1:7" ht="18">
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="81"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="84"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="75"/>
     </row>
     <row r="7" spans="1:7" ht="18">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="68"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
+      <c r="B8" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="81"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="72"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="81"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1">
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="75"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="85"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1">
       <c r="A12" s="2" t="s">
@@ -5208,10 +5208,10 @@
       <c r="B22" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="77"/>
+      <c r="D22" s="87"/>
       <c r="E22" s="23" t="s">
         <v>37</v>
       </c>
@@ -5252,12 +5252,12 @@
       <c r="C26" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="62" t="s">
+      <c r="D26" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="65"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="90"/>
     </row>
     <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A27" s="6">
@@ -5269,12 +5269,12 @@
       <c r="C27" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="55"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="93"/>
     </row>
     <row r="29" spans="1:7" ht="15.6" thickBot="1">
       <c r="A29" s="2" t="s">
@@ -5292,49 +5292,49 @@
         <v>47</v>
       </c>
       <c r="D30" s="38"/>
-      <c r="E30" s="85" t="s">
+      <c r="E30" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="86"/>
+      <c r="F30" s="105"/>
       <c r="G30" s="30" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18">
-      <c r="A31" s="94">
-        <v>1</v>
-      </c>
-      <c r="B31" s="95" t="s">
+      <c r="A31" s="52">
+        <v>1</v>
+      </c>
+      <c r="B31" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="C31" s="96" t="s">
+      <c r="C31" s="108" t="s">
         <v>231</v>
       </c>
-      <c r="D31" s="97"/>
-      <c r="E31" s="96" t="s">
+      <c r="D31" s="109"/>
+      <c r="E31" s="108" t="s">
         <v>230</v>
       </c>
-      <c r="F31" s="97"/>
-      <c r="G31" s="98" t="s">
+      <c r="F31" s="109"/>
+      <c r="G31" s="54" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A32" s="99">
+      <c r="A32" s="55">
         <v>2</v>
       </c>
-      <c r="B32" s="100" t="s">
+      <c r="B32" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="76" t="s">
+      <c r="C32" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="77"/>
-      <c r="E32" s="76" t="s">
+      <c r="D32" s="87"/>
+      <c r="E32" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="77"/>
-      <c r="G32" s="101" t="s">
+      <c r="F32" s="87"/>
+      <c r="G32" s="57" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5354,10 +5354,10 @@
         <v>47</v>
       </c>
       <c r="D35" s="44"/>
-      <c r="E35" s="60" t="s">
+      <c r="E35" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="61"/>
+      <c r="F35" s="95"/>
       <c r="G35" s="45" t="s">
         <v>70</v>
       </c>
@@ -5378,10 +5378,10 @@
         <v>73</v>
       </c>
       <c r="D38" s="44"/>
-      <c r="E38" s="60" t="s">
+      <c r="E38" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="61"/>
+      <c r="F38" s="95"/>
       <c r="G38" s="45" t="s">
         <v>75</v>
       </c>
@@ -5410,124 +5410,146 @@
       <c r="A42" s="46">
         <v>1</v>
       </c>
-      <c r="B42" s="62" t="s">
+      <c r="B42" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="63"/>
-      <c r="D42" s="62" t="s">
+      <c r="C42" s="96"/>
+      <c r="D42" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="65"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="90"/>
     </row>
     <row r="43" spans="1:7" ht="18">
       <c r="A43" s="47">
         <v>2</v>
       </c>
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="56" t="s">
+      <c r="C43" s="99"/>
+      <c r="D43" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="59"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="68"/>
     </row>
     <row r="44" spans="1:7" ht="18">
       <c r="A44" s="47">
         <v>3</v>
       </c>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="56" t="s">
+      <c r="C44" s="99"/>
+      <c r="D44" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="59"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="68"/>
     </row>
     <row r="45" spans="1:7" ht="18">
       <c r="A45" s="47">
         <v>4</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="57"/>
-      <c r="D45" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="59"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="68"/>
     </row>
     <row r="46" spans="1:7" ht="18">
       <c r="A46" s="47">
         <v>5</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="56" t="s">
+      <c r="C46" s="99"/>
+      <c r="D46" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="59"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="68"/>
     </row>
     <row r="47" spans="1:7" ht="18">
       <c r="A47" s="47">
         <v>6</v>
       </c>
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="56" t="s">
+      <c r="C47" s="99"/>
+      <c r="D47" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="59"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="68"/>
     </row>
     <row r="48" spans="1:7" ht="18">
       <c r="A48" s="47">
         <v>7</v>
       </c>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="57"/>
-      <c r="D48" s="56" t="s">
+      <c r="C48" s="99"/>
+      <c r="D48" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="59"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="68"/>
     </row>
     <row r="49" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A49" s="48">
         <v>8</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="52" t="s">
+      <c r="C49" s="100"/>
+      <c r="D49" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="55"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -5544,28 +5566,6 @@
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="D26:G26"/>
     <mergeCell ref="D27:G27"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5579,12 +5579,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB45A87-F325-4E11-B89A-C36282F8C2BC}">
-  <sheetPr>
+  <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
@@ -5607,108 +5607,108 @@
       <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="83"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:7" ht="18">
       <c r="B3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="84"/>
+      <c r="G3" s="75"/>
     </row>
     <row r="4" spans="1:7" ht="18">
       <c r="B4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="81"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="80"/>
-      <c r="G4" s="84"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="75"/>
     </row>
     <row r="5" spans="1:7" ht="18">
       <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="82" t="str">
+      <c r="C5" s="73" t="str">
         <f>テーブル一覧!B6</f>
         <v>従業員情報</v>
       </c>
-      <c r="D5" s="81"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="80" t="s">
+      <c r="F5" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="84"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" spans="1:7" ht="18">
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="81"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="84"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="75"/>
     </row>
     <row r="7" spans="1:7" ht="18">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="68"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
+      <c r="B8" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="81"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="72"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="81"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1">
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="75"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="85"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1">
       <c r="A12" s="2" t="s">
@@ -6020,10 +6020,10 @@
       <c r="B28" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="77"/>
+      <c r="D28" s="87"/>
       <c r="E28" s="23" t="s">
         <v>37</v>
       </c>
@@ -6064,12 +6064,12 @@
       <c r="C32" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="62" t="s">
+      <c r="D32" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="65"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="90"/>
     </row>
     <row r="33" spans="1:7" ht="18">
       <c r="A33" s="3">
@@ -6081,12 +6081,12 @@
       <c r="C33" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="56" t="s">
+      <c r="D33" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="59"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="68"/>
     </row>
     <row r="34" spans="1:7" ht="18">
       <c r="A34" s="3">
@@ -6098,12 +6098,12 @@
       <c r="C34" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="56" t="s">
+      <c r="D34" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="59"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="68"/>
     </row>
     <row r="35" spans="1:7" ht="18">
       <c r="A35" s="3">
@@ -6115,12 +6115,12 @@
       <c r="C35" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="56" t="s">
+      <c r="D35" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="59"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="68"/>
     </row>
     <row r="36" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A36" s="6">
@@ -6132,12 +6132,12 @@
       <c r="C36" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="52" t="s">
+      <c r="D36" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="55"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="93"/>
     </row>
     <row r="38" spans="1:7" ht="15.6" thickBot="1">
       <c r="A38" s="2" t="s">
@@ -6155,10 +6155,10 @@
         <v>47</v>
       </c>
       <c r="D39" s="38"/>
-      <c r="E39" s="85" t="s">
+      <c r="E39" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="86"/>
+      <c r="F39" s="105"/>
       <c r="G39" s="30" t="s">
         <v>67</v>
       </c>
@@ -6170,14 +6170,14 @@
       <c r="B40" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="C40" s="87" t="s">
+      <c r="C40" s="106" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="88"/>
-      <c r="E40" s="87" t="s">
+      <c r="D40" s="107"/>
+      <c r="E40" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="88"/>
+      <c r="F40" s="107"/>
       <c r="G40" s="24" t="s">
         <v>31</v>
       </c>
@@ -6198,60 +6198,55 @@
         <v>47</v>
       </c>
       <c r="D43" s="44"/>
-      <c r="E43" s="60" t="s">
+      <c r="E43" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="F43" s="61"/>
+      <c r="F43" s="95"/>
       <c r="G43" s="45" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="18">
-      <c r="A44" s="94">
-        <v>1</v>
-      </c>
-      <c r="B44" s="95" t="s">
+      <c r="A44" s="52">
+        <v>1</v>
+      </c>
+      <c r="B44" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="C44" s="96" t="s">
+      <c r="C44" s="108" t="s">
         <v>244</v>
       </c>
-      <c r="D44" s="97"/>
-      <c r="E44" s="96" t="s">
+      <c r="D44" s="109"/>
+      <c r="E44" s="108" t="s">
         <v>258</v>
       </c>
-      <c r="F44" s="97"/>
-      <c r="G44" s="98" t="s">
+      <c r="F44" s="109"/>
+      <c r="G44" s="54" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A45" s="99">
+      <c r="A45" s="55">
         <v>2</v>
       </c>
-      <c r="B45" s="100" t="s">
+      <c r="B45" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="C45" s="76" t="s">
+      <c r="C45" s="86" t="s">
         <v>244</v>
       </c>
-      <c r="D45" s="77"/>
-      <c r="E45" s="76" t="s">
+      <c r="D45" s="87"/>
+      <c r="E45" s="86" t="s">
         <v>238</v>
       </c>
-      <c r="F45" s="77"/>
-      <c r="G45" s="101" t="s">
+      <c r="F45" s="87"/>
+      <c r="G45" s="57" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="18">
-      <c r="A46" s="91"/>
-      <c r="B46" s="92"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="93"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="92"/>
+      <c r="D46"/>
+      <c r="F46"/>
     </row>
     <row r="47" spans="1:7" ht="15.6" thickBot="1">
       <c r="A47" s="2" t="s">
@@ -6269,10 +6264,10 @@
         <v>73</v>
       </c>
       <c r="D48" s="44"/>
-      <c r="E48" s="60" t="s">
+      <c r="E48" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="F48" s="61"/>
+      <c r="F48" s="95"/>
       <c r="G48" s="45" t="s">
         <v>75</v>
       </c>
@@ -6301,124 +6296,151 @@
       <c r="A52" s="46">
         <v>1</v>
       </c>
-      <c r="B52" s="62" t="s">
+      <c r="B52" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="63"/>
-      <c r="D52" s="62" t="s">
+      <c r="C52" s="96"/>
+      <c r="D52" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="65"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="89"/>
+      <c r="G52" s="90"/>
     </row>
     <row r="53" spans="1:7" ht="18">
       <c r="A53" s="47">
         <v>2</v>
       </c>
-      <c r="B53" s="56" t="s">
+      <c r="B53" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="57"/>
-      <c r="D53" s="56" t="s">
+      <c r="C53" s="99"/>
+      <c r="D53" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="59"/>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="68"/>
+    </row>
+    <row r="54" spans="1:7" ht="18">
       <c r="A54" s="47">
         <v>3</v>
       </c>
-      <c r="B54" s="56" t="s">
+      <c r="B54" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="C54" s="57"/>
-      <c r="D54" s="56" t="s">
+      <c r="C54" s="99"/>
+      <c r="D54" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="59"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="68"/>
     </row>
     <row r="55" spans="1:7" ht="18">
       <c r="A55" s="47">
         <v>4</v>
       </c>
-      <c r="B55" s="56" t="s">
+      <c r="B55" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="57"/>
-      <c r="D55" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="59"/>
+      <c r="C55" s="99"/>
+      <c r="D55" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="68"/>
     </row>
     <row r="56" spans="1:7" ht="18">
       <c r="A56" s="47">
         <v>5</v>
       </c>
-      <c r="B56" s="56" t="s">
+      <c r="B56" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C56" s="57"/>
-      <c r="D56" s="56" t="s">
+      <c r="C56" s="99"/>
+      <c r="D56" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="59"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="68"/>
     </row>
     <row r="57" spans="1:7" ht="18">
       <c r="A57" s="47">
         <v>6</v>
       </c>
-      <c r="B57" s="56" t="s">
+      <c r="B57" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="C57" s="57"/>
-      <c r="D57" s="56" t="s">
+      <c r="C57" s="99"/>
+      <c r="D57" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="59"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="68"/>
     </row>
     <row r="58" spans="1:7" ht="18">
       <c r="A58" s="47">
         <v>7</v>
       </c>
-      <c r="B58" s="56" t="s">
+      <c r="B58" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="C58" s="57"/>
-      <c r="D58" s="56" t="s">
+      <c r="C58" s="99"/>
+      <c r="D58" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="59"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="68"/>
     </row>
     <row r="59" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A59" s="48">
         <v>8</v>
       </c>
-      <c r="B59" s="52" t="s">
+      <c r="B59" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="53"/>
-      <c r="D59" s="52" t="s">
+      <c r="C59" s="100"/>
+      <c r="D59" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="55"/>
+      <c r="E59" s="92"/>
+      <c r="F59" s="92"/>
+      <c r="G59" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
     <mergeCell ref="D34:G34"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -6435,33 +6457,6 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="D32:G32"/>
     <mergeCell ref="D33:G33"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6475,7 +6470,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548B4BBB-19D3-4EEE-9CBF-37705355E468}">
-  <sheetPr>
+  <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G49"/>
@@ -6503,108 +6498,108 @@
       <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="83"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:7" ht="18">
       <c r="B3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="84"/>
+      <c r="G3" s="75"/>
     </row>
     <row r="4" spans="1:7" ht="18">
       <c r="B4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="81"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="80"/>
-      <c r="G4" s="84"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="75"/>
     </row>
     <row r="5" spans="1:7" ht="18">
       <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="82" t="str">
+      <c r="C5" s="73" t="str">
         <f>テーブル一覧!B7</f>
         <v>ログイン失敗履歴</v>
       </c>
-      <c r="D5" s="81"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="80" t="s">
+      <c r="F5" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="84"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" spans="1:7" ht="18">
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="71" t="s">
         <v>239</v>
       </c>
-      <c r="D6" s="81"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="84"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="75"/>
     </row>
     <row r="7" spans="1:7" ht="18">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="68"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
+      <c r="B8" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="81"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="72"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="81"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1">
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="75"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="85"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1">
       <c r="A12" s="2" t="s">
@@ -6759,10 +6754,10 @@
       <c r="B21" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="77"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="23" t="s">
         <v>37</v>
       </c>
@@ -6803,12 +6798,12 @@
       <c r="C25" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="62" t="s">
+      <c r="D25" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="65"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="90"/>
     </row>
     <row r="26" spans="1:7" ht="18">
       <c r="A26" s="3">
@@ -6820,12 +6815,12 @@
       <c r="C26" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="59"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="68"/>
     </row>
     <row r="27" spans="1:7" ht="18">
       <c r="A27" s="3">
@@ -6837,12 +6832,12 @@
       <c r="C27" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="59"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="68"/>
     </row>
     <row r="28" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A28" s="6">
@@ -6854,12 +6849,12 @@
       <c r="C28" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="55"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="93"/>
     </row>
     <row r="30" spans="1:7" ht="15.6" thickBot="1">
       <c r="A30" s="2" t="s">
@@ -6877,10 +6872,10 @@
         <v>47</v>
       </c>
       <c r="D31" s="44"/>
-      <c r="E31" s="60" t="s">
+      <c r="E31" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="61"/>
+      <c r="F31" s="95"/>
       <c r="G31" s="45" t="s">
         <v>67</v>
       </c>
@@ -6892,26 +6887,21 @@
       <c r="B32" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="C32" s="87" t="s">
+      <c r="C32" s="106" t="s">
         <v>236</v>
       </c>
-      <c r="D32" s="88"/>
-      <c r="E32" s="87" t="s">
+      <c r="D32" s="107"/>
+      <c r="E32" s="106" t="s">
         <v>238</v>
       </c>
-      <c r="F32" s="88"/>
+      <c r="F32" s="107"/>
       <c r="G32" s="24" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="18">
-      <c r="A33" s="91"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="92"/>
+      <c r="D33"/>
+      <c r="F33"/>
     </row>
     <row r="34" spans="1:7" ht="15.6" thickBot="1">
       <c r="A34" s="2" t="s">
@@ -6929,10 +6919,10 @@
         <v>47</v>
       </c>
       <c r="D35" s="44"/>
-      <c r="E35" s="60" t="s">
+      <c r="E35" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="61"/>
+      <c r="F35" s="95"/>
       <c r="G35" s="45" t="s">
         <v>70</v>
       </c>
@@ -6953,10 +6943,10 @@
         <v>73</v>
       </c>
       <c r="D38" s="44"/>
-      <c r="E38" s="60" t="s">
+      <c r="E38" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="61"/>
+      <c r="F38" s="95"/>
       <c r="G38" s="45" t="s">
         <v>75</v>
       </c>
@@ -6985,124 +6975,146 @@
       <c r="A42" s="46">
         <v>1</v>
       </c>
-      <c r="B42" s="62" t="s">
+      <c r="B42" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="63"/>
-      <c r="D42" s="62" t="s">
+      <c r="C42" s="96"/>
+      <c r="D42" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="65"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="90"/>
     </row>
     <row r="43" spans="1:7" ht="18">
       <c r="A43" s="47">
         <v>2</v>
       </c>
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="56" t="s">
+      <c r="C43" s="99"/>
+      <c r="D43" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="59"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="68"/>
     </row>
     <row r="44" spans="1:7" ht="18">
       <c r="A44" s="47">
         <v>3</v>
       </c>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="56" t="s">
+      <c r="C44" s="99"/>
+      <c r="D44" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="59"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="68"/>
     </row>
     <row r="45" spans="1:7" ht="18">
       <c r="A45" s="47">
         <v>4</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="57"/>
-      <c r="D45" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="59"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="68"/>
     </row>
     <row r="46" spans="1:7" ht="18">
       <c r="A46" s="47">
         <v>5</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="56" t="s">
+      <c r="C46" s="99"/>
+      <c r="D46" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="59"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="68"/>
     </row>
     <row r="47" spans="1:7" ht="18">
       <c r="A47" s="47">
         <v>6</v>
       </c>
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="56" t="s">
+      <c r="C47" s="99"/>
+      <c r="D47" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="59"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="68"/>
     </row>
     <row r="48" spans="1:7" ht="18">
       <c r="A48" s="47">
         <v>7</v>
       </c>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="57"/>
-      <c r="D48" s="56" t="s">
+      <c r="C48" s="99"/>
+      <c r="D48" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="59"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="68"/>
     </row>
     <row r="49" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A49" s="48">
         <v>8</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="52" t="s">
+      <c r="C49" s="100"/>
+      <c r="D49" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="55"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -7119,28 +7131,6 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7154,7 +7144,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378389F0-0157-4BD0-995A-4832141DA5A1}">
-  <sheetPr>
+  <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G49"/>
@@ -7182,108 +7172,108 @@
       <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="83"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:7" ht="18">
       <c r="B3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="84"/>
+      <c r="G3" s="75"/>
     </row>
     <row r="4" spans="1:7" ht="18">
       <c r="B4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="81"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="80"/>
-      <c r="G4" s="84"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="75"/>
     </row>
     <row r="5" spans="1:7" ht="18">
       <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="82" t="str">
+      <c r="C5" s="73" t="str">
         <f>テーブル一覧!B8</f>
         <v>ログイン履歴</v>
       </c>
-      <c r="D5" s="81"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="80" t="s">
+      <c r="F5" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="84"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" spans="1:7" ht="18">
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="D6" s="81"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="84"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="75"/>
     </row>
     <row r="7" spans="1:7" ht="18">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="68"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
+      <c r="B8" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="81"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="72"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="81"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1">
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="75"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="85"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1">
       <c r="A12" s="2" t="s">
@@ -7438,10 +7428,10 @@
       <c r="B21" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="77"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="23" t="s">
         <v>37</v>
       </c>
@@ -7482,12 +7472,12 @@
       <c r="C25" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="62" t="s">
+      <c r="D25" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="65"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="90"/>
     </row>
     <row r="26" spans="1:7" ht="18">
       <c r="A26" s="3">
@@ -7499,12 +7489,12 @@
       <c r="C26" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="59"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="68"/>
     </row>
     <row r="27" spans="1:7" ht="18">
       <c r="A27" s="3">
@@ -7516,12 +7506,12 @@
       <c r="C27" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="59"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="68"/>
     </row>
     <row r="28" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A28" s="6">
@@ -7533,12 +7523,12 @@
       <c r="C28" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="55"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="93"/>
     </row>
     <row r="30" spans="1:7" ht="15.6" thickBot="1">
       <c r="A30" s="2" t="s">
@@ -7556,10 +7546,10 @@
         <v>47</v>
       </c>
       <c r="D31" s="44"/>
-      <c r="E31" s="60" t="s">
+      <c r="E31" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="61"/>
+      <c r="F31" s="95"/>
       <c r="G31" s="45" t="s">
         <v>67</v>
       </c>
@@ -7571,14 +7561,14 @@
       <c r="B32" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="C32" s="87" t="s">
+      <c r="C32" s="106" t="s">
         <v>236</v>
       </c>
-      <c r="D32" s="88"/>
-      <c r="E32" s="87" t="s">
+      <c r="D32" s="107"/>
+      <c r="E32" s="106" t="s">
         <v>238</v>
       </c>
-      <c r="F32" s="88"/>
+      <c r="F32" s="107"/>
       <c r="G32" s="24" t="s">
         <v>31</v>
       </c>
@@ -7599,10 +7589,10 @@
         <v>47</v>
       </c>
       <c r="D35" s="44"/>
-      <c r="E35" s="60" t="s">
+      <c r="E35" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="61"/>
+      <c r="F35" s="95"/>
       <c r="G35" s="45" t="s">
         <v>70</v>
       </c>
@@ -7623,10 +7613,10 @@
         <v>73</v>
       </c>
       <c r="D38" s="44"/>
-      <c r="E38" s="60" t="s">
+      <c r="E38" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="61"/>
+      <c r="F38" s="95"/>
       <c r="G38" s="45" t="s">
         <v>75</v>
       </c>
@@ -7655,124 +7645,146 @@
       <c r="A42" s="46">
         <v>1</v>
       </c>
-      <c r="B42" s="62" t="s">
+      <c r="B42" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="63"/>
-      <c r="D42" s="62" t="s">
+      <c r="C42" s="96"/>
+      <c r="D42" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="65"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="90"/>
     </row>
     <row r="43" spans="1:7" ht="18">
       <c r="A43" s="47">
         <v>2</v>
       </c>
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="56" t="s">
+      <c r="C43" s="99"/>
+      <c r="D43" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="59"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="68"/>
     </row>
     <row r="44" spans="1:7" ht="18">
       <c r="A44" s="47">
         <v>3</v>
       </c>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="56" t="s">
+      <c r="C44" s="99"/>
+      <c r="D44" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="59"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="68"/>
     </row>
     <row r="45" spans="1:7" ht="18">
       <c r="A45" s="47">
         <v>4</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="57"/>
-      <c r="D45" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="59"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="68"/>
     </row>
     <row r="46" spans="1:7" ht="18">
       <c r="A46" s="47">
         <v>5</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="56" t="s">
+      <c r="C46" s="99"/>
+      <c r="D46" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="59"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="68"/>
     </row>
     <row r="47" spans="1:7" ht="18">
       <c r="A47" s="47">
         <v>6</v>
       </c>
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="56" t="s">
+      <c r="C47" s="99"/>
+      <c r="D47" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="59"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="68"/>
     </row>
     <row r="48" spans="1:7" ht="18">
       <c r="A48" s="47">
         <v>7</v>
       </c>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="57"/>
-      <c r="D48" s="56" t="s">
+      <c r="C48" s="99"/>
+      <c r="D48" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="59"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="68"/>
     </row>
     <row r="49" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A49" s="48">
         <v>8</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="52" t="s">
+      <c r="C49" s="100"/>
+      <c r="D49" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="55"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -7789,28 +7801,6 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7824,13 +7814,14 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534CBBD6-72C9-4441-A5F1-588DC164AA60}">
-  <sheetPr>
+  <sheetPr codeName="Sheet8">
+    <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:G21"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7852,108 +7843,108 @@
       <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="83"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:7" ht="18">
       <c r="B3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="84"/>
+      <c r="G3" s="75"/>
     </row>
     <row r="4" spans="1:7" ht="18">
       <c r="B4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="81"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="80"/>
-      <c r="G4" s="84"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="75"/>
     </row>
     <row r="5" spans="1:7" ht="18">
       <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="82" t="str">
+      <c r="C5" s="73" t="str">
         <f>テーブル一覧!B9</f>
         <v>ユーザー情報</v>
       </c>
-      <c r="D5" s="81"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="80" t="s">
+      <c r="F5" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="84"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" spans="1:7" ht="18">
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="71" t="s">
         <v>233</v>
       </c>
-      <c r="D6" s="81"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="84"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="75"/>
     </row>
     <row r="7" spans="1:7" ht="18">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="68"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
+      <c r="B8" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="81"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="72"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="81"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1">
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="75"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="85"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1">
       <c r="A12" s="2" t="s">
@@ -8217,10 +8208,10 @@
       <c r="B26" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="89"/>
+      <c r="D26" s="110"/>
       <c r="E26" s="28" t="s">
         <v>37</v>
       </c>
@@ -8236,10 +8227,10 @@
       <c r="B27" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="90"/>
+      <c r="D27" s="111"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26" t="s">
         <v>167</v>
@@ -8278,12 +8269,12 @@
       <c r="C31" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="62" t="s">
+      <c r="D31" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="65"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="90"/>
     </row>
     <row r="32" spans="1:7" ht="18">
       <c r="A32" s="3">
@@ -8295,12 +8286,12 @@
       <c r="C32" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="56" t="s">
+      <c r="D32" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="59"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="68"/>
     </row>
     <row r="33" spans="1:7" ht="18">
       <c r="A33" s="3">
@@ -8312,12 +8303,12 @@
       <c r="C33" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="56" t="s">
+      <c r="D33" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="59"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="68"/>
     </row>
     <row r="34" spans="1:7" ht="18">
       <c r="A34" s="3">
@@ -8329,12 +8320,12 @@
       <c r="C34" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="56" t="s">
+      <c r="D34" s="66" t="s">
         <v>173</v>
       </c>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="59"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="68"/>
     </row>
     <row r="35" spans="1:7" ht="18">
       <c r="A35" s="3">
@@ -8346,12 +8337,12 @@
       <c r="C35" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="56" t="s">
+      <c r="D35" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="59"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="68"/>
     </row>
     <row r="36" spans="1:7" ht="18">
       <c r="A36" s="3">
@@ -8363,12 +8354,12 @@
       <c r="C36" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="56" t="s">
+      <c r="D36" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="59"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="68"/>
     </row>
     <row r="37" spans="1:7" ht="18">
       <c r="A37" s="3">
@@ -8380,12 +8371,12 @@
       <c r="C37" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="56" t="s">
+      <c r="D37" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="59"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="68"/>
     </row>
     <row r="38" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A38" s="6">
@@ -8397,12 +8388,12 @@
       <c r="C38" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="55"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="93"/>
     </row>
     <row r="40" spans="1:7" ht="15.6" thickBot="1">
       <c r="A40" s="2" t="s">
@@ -8420,30 +8411,30 @@
         <v>47</v>
       </c>
       <c r="D41" s="44"/>
-      <c r="E41" s="60" t="s">
+      <c r="E41" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="F41" s="61"/>
+      <c r="F41" s="95"/>
       <c r="G41" s="45" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A42" s="102">
-        <v>1</v>
-      </c>
-      <c r="B42" s="103" t="s">
+      <c r="A42" s="58">
+        <v>1</v>
+      </c>
+      <c r="B42" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="C42" s="104" t="s">
+      <c r="C42" s="97" t="s">
         <v>231</v>
       </c>
-      <c r="D42" s="105"/>
-      <c r="E42" s="104" t="s">
+      <c r="D42" s="98"/>
+      <c r="E42" s="97" t="s">
         <v>230</v>
       </c>
-      <c r="F42" s="105"/>
-      <c r="G42" s="106" t="s">
+      <c r="F42" s="98"/>
+      <c r="G42" s="60" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8463,49 +8454,49 @@
         <v>47</v>
       </c>
       <c r="D45" s="44"/>
-      <c r="E45" s="60" t="s">
+      <c r="E45" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="F45" s="61"/>
+      <c r="F45" s="95"/>
       <c r="G45" s="45" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="18">
-      <c r="A46" s="94">
-        <v>1</v>
-      </c>
-      <c r="B46" s="95" t="s">
+      <c r="A46" s="52">
+        <v>1</v>
+      </c>
+      <c r="B46" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="C46" s="96" t="s">
+      <c r="C46" s="108" t="s">
         <v>244</v>
       </c>
-      <c r="D46" s="97"/>
-      <c r="E46" s="96" t="s">
+      <c r="D46" s="109"/>
+      <c r="E46" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="F46" s="97"/>
-      <c r="G46" s="98" t="s">
+      <c r="F46" s="109"/>
+      <c r="G46" s="54" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A47" s="99">
+      <c r="A47" s="55">
         <v>2</v>
       </c>
-      <c r="B47" s="100" t="s">
+      <c r="B47" s="56" t="s">
         <v>237</v>
       </c>
-      <c r="C47" s="76" t="s">
+      <c r="C47" s="86" t="s">
         <v>244</v>
       </c>
-      <c r="D47" s="77"/>
-      <c r="E47" s="76" t="s">
+      <c r="D47" s="87"/>
+      <c r="E47" s="86" t="s">
         <v>245</v>
       </c>
-      <c r="F47" s="77"/>
-      <c r="G47" s="101" t="s">
+      <c r="F47" s="87"/>
+      <c r="G47" s="57" t="s">
         <v>236</v>
       </c>
     </row>
@@ -8525,10 +8516,10 @@
         <v>73</v>
       </c>
       <c r="D50" s="44"/>
-      <c r="E50" s="60" t="s">
+      <c r="E50" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="F50" s="61"/>
+      <c r="F50" s="95"/>
       <c r="G50" s="45" t="s">
         <v>75</v>
       </c>
@@ -8557,124 +8548,155 @@
       <c r="A54" s="46">
         <v>1</v>
       </c>
-      <c r="B54" s="62" t="s">
+      <c r="B54" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="63"/>
-      <c r="D54" s="62" t="s">
+      <c r="C54" s="96"/>
+      <c r="D54" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="65"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="89"/>
+      <c r="G54" s="90"/>
     </row>
     <row r="55" spans="1:7" ht="18">
       <c r="A55" s="47">
         <v>2</v>
       </c>
-      <c r="B55" s="56" t="s">
+      <c r="B55" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="57"/>
-      <c r="D55" s="56" t="s">
+      <c r="C55" s="99"/>
+      <c r="D55" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="59"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="68"/>
     </row>
     <row r="56" spans="1:7" ht="18">
       <c r="A56" s="47">
         <v>3</v>
       </c>
-      <c r="B56" s="56" t="s">
+      <c r="B56" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="57"/>
-      <c r="D56" s="56" t="s">
+      <c r="C56" s="99"/>
+      <c r="D56" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="59"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="68"/>
     </row>
     <row r="57" spans="1:7" ht="18">
       <c r="A57" s="47">
         <v>4</v>
       </c>
-      <c r="B57" s="56" t="s">
+      <c r="B57" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="57"/>
-      <c r="D57" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="59"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="68"/>
     </row>
     <row r="58" spans="1:7" ht="18">
       <c r="A58" s="47">
         <v>5</v>
       </c>
-      <c r="B58" s="56" t="s">
+      <c r="B58" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="57"/>
-      <c r="D58" s="56" t="s">
+      <c r="C58" s="99"/>
+      <c r="D58" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="59"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="68"/>
     </row>
     <row r="59" spans="1:7" ht="18">
       <c r="A59" s="47">
         <v>6</v>
       </c>
-      <c r="B59" s="56" t="s">
+      <c r="B59" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="57"/>
-      <c r="D59" s="56" t="s">
+      <c r="C59" s="99"/>
+      <c r="D59" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="E59" s="58"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="59"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="68"/>
     </row>
     <row r="60" spans="1:7" ht="18">
       <c r="A60" s="47">
         <v>7</v>
       </c>
-      <c r="B60" s="56" t="s">
+      <c r="B60" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="C60" s="57"/>
-      <c r="D60" s="56" t="s">
+      <c r="C60" s="99"/>
+      <c r="D60" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="59"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="68"/>
     </row>
     <row r="61" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A61" s="48">
         <v>8</v>
       </c>
-      <c r="B61" s="52" t="s">
+      <c r="B61" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C61" s="53"/>
-      <c r="D61" s="52" t="s">
+      <c r="C61" s="100"/>
+      <c r="D61" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="55"/>
+      <c r="E61" s="92"/>
+      <c r="F61" s="92"/>
+      <c r="G61" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E45:F45"/>
     <mergeCell ref="D32:G32"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -8691,37 +8713,6 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="D31:G31"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:G61"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8735,7 +8726,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14EAA71-88F8-4519-A6AF-B83A6C1D5663}">
-  <sheetPr>
+  <sheetPr codeName="Sheet9">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G51"/>
@@ -8763,108 +8754,108 @@
       <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="83"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:7" ht="18">
       <c r="B3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="84"/>
+      <c r="G3" s="75"/>
     </row>
     <row r="4" spans="1:7" ht="18">
       <c r="B4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="81"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="80"/>
-      <c r="G4" s="84"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="75"/>
     </row>
     <row r="5" spans="1:7" ht="18">
       <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="82" t="str">
+      <c r="C5" s="73" t="str">
         <f>テーブル一覧!B10</f>
         <v>プロジェクト</v>
       </c>
-      <c r="D5" s="81"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="80" t="s">
+      <c r="F5" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="84"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" spans="1:7" ht="18">
       <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="D6" s="81"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="84"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="75"/>
     </row>
     <row r="7" spans="1:7" ht="18">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="68"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
+      <c r="B8" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="81"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="72"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="81"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1">
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="75"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="85"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1">
       <c r="A12" s="2" t="s">
@@ -9065,10 +9056,10 @@
       <c r="B23" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="77"/>
+      <c r="D23" s="87"/>
       <c r="E23" s="23" t="s">
         <v>37</v>
       </c>
@@ -9109,12 +9100,12 @@
       <c r="C27" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="62" t="s">
+      <c r="D27" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="65"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="90"/>
     </row>
     <row r="28" spans="1:7" ht="18">
       <c r="A28" s="3">
@@ -9126,12 +9117,12 @@
       <c r="C28" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="56" t="s">
+      <c r="D28" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="59"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="68"/>
     </row>
     <row r="29" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A29" s="6">
@@ -9143,12 +9134,12 @@
       <c r="C29" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="52" t="s">
+      <c r="D29" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="55"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="93"/>
     </row>
     <row r="31" spans="1:7" ht="15.6" thickBot="1">
       <c r="A31" s="2" t="s">
@@ -9166,10 +9157,10 @@
         <v>47</v>
       </c>
       <c r="D32" s="38"/>
-      <c r="E32" s="85" t="s">
+      <c r="E32" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="86"/>
+      <c r="F32" s="105"/>
       <c r="G32" s="30" t="s">
         <v>67</v>
       </c>
@@ -9181,14 +9172,14 @@
       <c r="B33" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="C33" s="87" t="s">
+      <c r="C33" s="106" t="s">
         <v>255</v>
       </c>
-      <c r="D33" s="88"/>
-      <c r="E33" s="87" t="s">
+      <c r="D33" s="107"/>
+      <c r="E33" s="106" t="s">
         <v>249</v>
       </c>
-      <c r="F33" s="88"/>
+      <c r="F33" s="107"/>
       <c r="G33" s="24" t="s">
         <v>31</v>
       </c>
@@ -9209,10 +9200,10 @@
         <v>47</v>
       </c>
       <c r="D36" s="38"/>
-      <c r="E36" s="85" t="s">
+      <c r="E36" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="86"/>
+      <c r="F36" s="105"/>
       <c r="G36" s="30" t="s">
         <v>70</v>
       </c>
@@ -9224,14 +9215,14 @@
       <c r="B37" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="87" t="s">
+      <c r="C37" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="88"/>
-      <c r="E37" s="87" t="s">
+      <c r="D37" s="107"/>
+      <c r="E37" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="88"/>
+      <c r="F37" s="107"/>
       <c r="G37" s="24" t="s">
         <v>102</v>
       </c>
@@ -9252,10 +9243,10 @@
         <v>73</v>
       </c>
       <c r="D40" s="44"/>
-      <c r="E40" s="60" t="s">
+      <c r="E40" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="F40" s="61"/>
+      <c r="F40" s="95"/>
       <c r="G40" s="45" t="s">
         <v>75</v>
       </c>
@@ -9284,124 +9275,147 @@
       <c r="A44" s="46">
         <v>1</v>
       </c>
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="63"/>
-      <c r="D44" s="62" t="s">
+      <c r="C44" s="96"/>
+      <c r="D44" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="65"/>
+      <c r="E44" s="89"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="90"/>
     </row>
     <row r="45" spans="1:7" ht="18">
       <c r="A45" s="47">
         <v>2</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="57"/>
-      <c r="D45" s="56" t="s">
+      <c r="C45" s="99"/>
+      <c r="D45" s="66" t="s">
         <v>179</v>
       </c>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="59"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="68"/>
     </row>
     <row r="46" spans="1:7" ht="18">
       <c r="A46" s="47">
         <v>3</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="56" t="s">
+      <c r="C46" s="99"/>
+      <c r="D46" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="59"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="68"/>
     </row>
     <row r="47" spans="1:7" ht="18">
       <c r="A47" s="47">
         <v>4</v>
       </c>
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="57"/>
-      <c r="D47" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="59"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="68"/>
     </row>
     <row r="48" spans="1:7" ht="18">
       <c r="A48" s="47">
         <v>5</v>
       </c>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="57"/>
-      <c r="D48" s="56" t="s">
+      <c r="C48" s="99"/>
+      <c r="D48" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="59"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="68"/>
     </row>
     <row r="49" spans="1:7" ht="18">
       <c r="A49" s="47">
         <v>6</v>
       </c>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="57"/>
-      <c r="D49" s="56" t="s">
+      <c r="C49" s="99"/>
+      <c r="D49" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="59"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="68"/>
     </row>
     <row r="50" spans="1:7" ht="18">
       <c r="A50" s="47">
         <v>7</v>
       </c>
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="57"/>
-      <c r="D50" s="56" t="s">
+      <c r="C50" s="99"/>
+      <c r="D50" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="59"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="68"/>
     </row>
     <row r="51" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A51" s="48">
         <v>8</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="52" t="s">
+      <c r="C51" s="100"/>
+      <c r="D51" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="55"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="92"/>
+      <c r="G51" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
     <mergeCell ref="D29:G29"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -9418,29 +9432,6 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D28:G28"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
